--- a/biology/Botanique/Euphorbia_helioscopia/Euphorbia_helioscopia.xlsx
+++ b/biology/Botanique/Euphorbia_helioscopia/Euphorbia_helioscopia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Euphorbe réveille-matin[1] (Euphorbia helioscopia) (Euphorbe réveil-matin existe également mais peu usité et à éviter[2]) ou Petite Éclaire[3] ou encore Herbe aux verrues (attention à ne pas confondre avec Chelidonium majus qui porte également le même nom vernaculaire), est une espèce de plantes herbacées de la famille des Euphorbiacées. Elle est très commune en France.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Euphorbe réveille-matin (Euphorbia helioscopia) (Euphorbe réveil-matin existe également mais peu usité et à éviter) ou Petite Éclaire ou encore Herbe aux verrues (attention à ne pas confondre avec Chelidonium majus qui porte également le même nom vernaculaire), est une espèce de plantes herbacées de la famille des Euphorbiacées. Elle est très commune en France.
 Helioscopia "qui regarde le soleil", dérivé du grec, fait allusion à l'ombelle qui se déploie tôt le matin, face au soleil, d'où, aussi, le nom vernaculaire de réveille-matin.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'euphorbe réveille-matin est une plante toxique de taille variable (10 à 50 cm), à racine pivotante, dont les fleurs se regroupent en ombelles à 5 rayons.
 C'est une plante annuelle (ou bisannuelle), thérophyte.
@@ -547,7 +561,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : jaune
